--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H2">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I2">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J2">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06860853772263389</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N2">
-        <v>0.06860853772263389</v>
+        <v>0.207911</v>
       </c>
       <c r="O2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q2">
-        <v>0.05215670431708679</v>
+        <v>0.07528309462177778</v>
       </c>
       <c r="R2">
-        <v>0.05215670431708679</v>
+        <v>0.677547851596</v>
       </c>
       <c r="S2">
-        <v>2.260399640844504E-06</v>
+        <v>2.107114777191141E-06</v>
       </c>
       <c r="T2">
-        <v>2.260399640844504E-06</v>
+        <v>2.214205816301025E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H3">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I3">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J3">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>94.3348072251292</v>
+        <v>0.311428</v>
       </c>
       <c r="N3">
-        <v>94.3348072251292</v>
+        <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.3680781998167726</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P3">
-        <v>0.3680781998167726</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q3">
-        <v>71.71399960660113</v>
+        <v>0.3382975926026666</v>
       </c>
       <c r="R3">
-        <v>71.71399960660113</v>
+        <v>3.044678333424</v>
       </c>
       <c r="S3">
-        <v>0.003107985849120812</v>
+        <v>9.468684304790262E-06</v>
       </c>
       <c r="T3">
-        <v>0.003107985849120812</v>
+        <v>9.949916391518423E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H4">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I4">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J4">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.750825565473</v>
+        <v>168.931335</v>
       </c>
       <c r="N4">
-        <v>161.750825565473</v>
+        <v>506.794005</v>
       </c>
       <c r="O4">
-        <v>0.6311239132649276</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P4">
-        <v>0.6311239132649276</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q4">
-        <v>122.9641421038464</v>
+        <v>183.50650534202</v>
       </c>
       <c r="R4">
-        <v>122.9641421038464</v>
+        <v>1651.55854807818</v>
       </c>
       <c r="S4">
-        <v>0.005329096350844961</v>
+        <v>0.005136203168314236</v>
       </c>
       <c r="T4">
-        <v>0.005329096350844961</v>
+        <v>0.005397243212420174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H5">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I5">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J5">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.135881998969694</v>
+        <v>206.345828</v>
       </c>
       <c r="N5">
-        <v>0.135881998969694</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O5">
-        <v>0.0005301881992392126</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P5">
-        <v>0.0005301881992392126</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q5">
-        <v>0.1032984738856921</v>
+        <v>224.1490709120693</v>
       </c>
       <c r="R5">
-        <v>0.1032984738856921</v>
+        <v>2017.341638208624</v>
       </c>
       <c r="S5">
-        <v>4.476813409288007E-06</v>
+        <v>0.006273756704414987</v>
       </c>
       <c r="T5">
-        <v>4.476813409288007E-06</v>
+        <v>0.006592611249915361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.0792899343937</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H6">
-        <v>75.0792899343937</v>
+        <v>3.258836</v>
       </c>
       <c r="I6">
-        <v>0.8339252329673077</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J6">
-        <v>0.8339252329673077</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06860853772263389</v>
+        <v>0.1471425</v>
       </c>
       <c r="N6">
-        <v>0.06860853772263389</v>
+        <v>0.294285</v>
       </c>
       <c r="O6">
-        <v>0.0002676987190607325</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P6">
-        <v>0.0002676987190607325</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q6">
-        <v>5.151080295652418</v>
+        <v>0.15983775871</v>
       </c>
       <c r="R6">
-        <v>5.151080295652418</v>
+        <v>0.9590265522600001</v>
       </c>
       <c r="S6">
-        <v>0.0002232407166577712</v>
+        <v>4.473733512457458E-06</v>
       </c>
       <c r="T6">
-        <v>0.0002232407166577712</v>
+        <v>3.134069667550765E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.0792899343937</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H7">
-        <v>75.0792899343937</v>
+        <v>235.023953</v>
       </c>
       <c r="I7">
-        <v>0.8339252329673077</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J7">
-        <v>0.8339252329673077</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.3348072251292</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N7">
-        <v>94.3348072251292</v>
+        <v>0.207911</v>
       </c>
       <c r="O7">
-        <v>0.3680781998167726</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P7">
-        <v>0.3680781998167726</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q7">
-        <v>7082.590342560613</v>
+        <v>5.429340565798111</v>
       </c>
       <c r="R7">
-        <v>7082.590342560613</v>
+        <v>48.864065092183</v>
       </c>
       <c r="S7">
-        <v>0.3069496985323893</v>
+        <v>0.000151962984439897</v>
       </c>
       <c r="T7">
-        <v>0.3069496985323893</v>
+        <v>0.0001596862817590878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.0792899343937</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H8">
-        <v>75.0792899343937</v>
+        <v>235.023953</v>
       </c>
       <c r="I8">
-        <v>0.8339252329673077</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J8">
-        <v>0.8339252329673077</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>161.750825565473</v>
+        <v>0.311428</v>
       </c>
       <c r="N8">
-        <v>161.750825565473</v>
+        <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.6311239132649276</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P8">
-        <v>0.6311239132649276</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q8">
-        <v>12144.13712975769</v>
+        <v>24.39767987829467</v>
       </c>
       <c r="R8">
-        <v>12144.13712975769</v>
+        <v>219.579118904652</v>
       </c>
       <c r="S8">
-        <v>0.5263101564006936</v>
+        <v>0.0006828719257492137</v>
       </c>
       <c r="T8">
-        <v>0.5263101564006936</v>
+        <v>0.0007175778966336924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.0792899343937</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H9">
-        <v>75.0792899343937</v>
+        <v>235.023953</v>
       </c>
       <c r="I9">
-        <v>0.8339252329673077</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J9">
-        <v>0.8339252329673077</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.135881998969694</v>
+        <v>168.931335</v>
       </c>
       <c r="N9">
-        <v>0.135881998969694</v>
+        <v>506.794005</v>
       </c>
       <c r="O9">
-        <v>0.0005301881992392126</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P9">
-        <v>0.0005301881992392126</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q9">
-        <v>10.20192399751064</v>
+        <v>13234.30337908909</v>
       </c>
       <c r="R9">
-        <v>10.20192399751064</v>
+        <v>119108.7304118018</v>
       </c>
       <c r="S9">
-        <v>0.0004421373175670777</v>
+        <v>0.3704177724894215</v>
       </c>
       <c r="T9">
-        <v>0.0004421373175670777</v>
+        <v>0.3892437161874387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7698203934965679</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H10">
-        <v>0.7698203934965679</v>
+        <v>235.023953</v>
       </c>
       <c r="I10">
-        <v>0.008550595664271503</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J10">
-        <v>0.008550595664271503</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.06860853772263389</v>
+        <v>206.345828</v>
       </c>
       <c r="N10">
-        <v>0.06860853772263389</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O10">
-        <v>0.0002676987190607325</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P10">
-        <v>0.0002676987190607325</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q10">
-        <v>0.05281625150686215</v>
+        <v>16165.40406053936</v>
       </c>
       <c r="R10">
-        <v>0.05281625150686215</v>
+        <v>145488.6365448542</v>
       </c>
       <c r="S10">
-        <v>2.288983506531734E-06</v>
+        <v>0.4524569818278253</v>
       </c>
       <c r="T10">
-        <v>2.288983506531734E-06</v>
+        <v>0.4754524488336875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7698203934965679</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H11">
-        <v>0.7698203934965679</v>
+        <v>235.023953</v>
       </c>
       <c r="I11">
-        <v>0.008550595664271503</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J11">
-        <v>0.008550595664271503</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.3348072251292</v>
+        <v>0.1471425</v>
       </c>
       <c r="N11">
-        <v>94.3348072251292</v>
+        <v>0.294285</v>
       </c>
       <c r="O11">
-        <v>0.3680781998167726</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P11">
-        <v>0.3680781998167726</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q11">
-        <v>72.62085841847184</v>
+        <v>11.5273373347675</v>
       </c>
       <c r="R11">
-        <v>72.62085841847184</v>
+        <v>69.16402400860501</v>
       </c>
       <c r="S11">
-        <v>0.003147287859466156</v>
+        <v>0.0003226411316084413</v>
       </c>
       <c r="T11">
-        <v>0.003147287859466156</v>
+        <v>0.0002260259314200459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7698203934965679</v>
+        <v>0.971679</v>
       </c>
       <c r="H12">
-        <v>0.7698203934965679</v>
+        <v>2.915037</v>
       </c>
       <c r="I12">
-        <v>0.008550595664271503</v>
+        <v>0.01022059415658427</v>
       </c>
       <c r="J12">
-        <v>0.008550595664271503</v>
+        <v>0.01073863924961949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>161.750825565473</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N12">
-        <v>161.750825565473</v>
+        <v>0.207911</v>
       </c>
       <c r="O12">
-        <v>0.6311239132649276</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P12">
-        <v>0.6311239132649276</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q12">
-        <v>124.5190841852071</v>
+        <v>0.06734091752299999</v>
       </c>
       <c r="R12">
-        <v>124.5190841852071</v>
+        <v>0.6060682577069999</v>
       </c>
       <c r="S12">
-        <v>0.005396485396381154</v>
+        <v>1.884819468902066E-06</v>
       </c>
       <c r="T12">
-        <v>0.005396485396381154</v>
+        <v>1.980612672786446E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7698203934965679</v>
+        <v>0.971679</v>
       </c>
       <c r="H13">
-        <v>0.7698203934965679</v>
+        <v>2.915037</v>
       </c>
       <c r="I13">
-        <v>0.008550595664271503</v>
+        <v>0.01022059415658427</v>
       </c>
       <c r="J13">
-        <v>0.008550595664271503</v>
+        <v>0.01073863924961949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.135881998969694</v>
+        <v>0.311428</v>
       </c>
       <c r="N13">
-        <v>0.135881998969694</v>
+        <v>0.934284</v>
       </c>
       <c r="O13">
-        <v>0.0005301881992392126</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P13">
-        <v>0.0005301881992392126</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q13">
-        <v>0.1046047339159501</v>
+        <v>0.302608047612</v>
       </c>
       <c r="R13">
-        <v>0.1046047339159501</v>
+        <v>2.723472428508</v>
       </c>
       <c r="S13">
-        <v>4.533424917662727E-06</v>
+        <v>8.469761930266785E-06</v>
       </c>
       <c r="T13">
-        <v>4.533424917662727E-06</v>
+        <v>8.90022524244322E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.662053204643028</v>
+        <v>0.971679</v>
       </c>
       <c r="H14">
-        <v>0.662053204643028</v>
+        <v>2.915037</v>
       </c>
       <c r="I14">
-        <v>0.007353597422153726</v>
+        <v>0.01022059415658427</v>
       </c>
       <c r="J14">
-        <v>0.007353597422153726</v>
+        <v>0.01073863924961949</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06860853772263389</v>
+        <v>168.931335</v>
       </c>
       <c r="N14">
-        <v>0.06860853772263389</v>
+        <v>506.794005</v>
       </c>
       <c r="O14">
-        <v>0.0002676987190607325</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P14">
-        <v>0.0002676987190607325</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q14">
-        <v>0.04542250226514184</v>
+        <v>164.147030661465</v>
       </c>
       <c r="R14">
-        <v>0.04542250226514184</v>
+        <v>1477.323275953185</v>
       </c>
       <c r="S14">
-        <v>1.968548610398857E-06</v>
+        <v>0.004594346654803502</v>
       </c>
       <c r="T14">
-        <v>1.968548610398857E-06</v>
+        <v>0.004827847630934379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.662053204643028</v>
+        <v>0.971679</v>
       </c>
       <c r="H15">
-        <v>0.662053204643028</v>
+        <v>2.915037</v>
       </c>
       <c r="I15">
-        <v>0.007353597422153726</v>
+        <v>0.01022059415658427</v>
       </c>
       <c r="J15">
-        <v>0.007353597422153726</v>
+        <v>0.01073863924961949</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>94.3348072251292</v>
+        <v>206.345828</v>
       </c>
       <c r="N15">
-        <v>94.3348072251292</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O15">
-        <v>0.3680781998167726</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P15">
-        <v>0.3680781998167726</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q15">
-        <v>62.45466143277906</v>
+        <v>200.501907805212</v>
       </c>
       <c r="R15">
-        <v>62.45466143277906</v>
+        <v>1804.517170246908</v>
       </c>
       <c r="S15">
-        <v>0.002706698901323603</v>
+        <v>0.005611891154500488</v>
       </c>
       <c r="T15">
-        <v>0.002706698901323603</v>
+        <v>0.005897107347568127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.662053204643028</v>
+        <v>0.971679</v>
       </c>
       <c r="H16">
-        <v>0.662053204643028</v>
+        <v>2.915037</v>
       </c>
       <c r="I16">
-        <v>0.007353597422153726</v>
+        <v>0.01022059415658427</v>
       </c>
       <c r="J16">
-        <v>0.007353597422153726</v>
+        <v>0.01073863924961949</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>161.750825565473</v>
+        <v>0.1471425</v>
       </c>
       <c r="N16">
-        <v>161.750825565473</v>
+        <v>0.294285</v>
       </c>
       <c r="O16">
-        <v>0.6311239132649276</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P16">
-        <v>0.6311239132649276</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q16">
-        <v>107.0876524192768</v>
+        <v>0.1429752772575</v>
       </c>
       <c r="R16">
-        <v>107.0876524192768</v>
+        <v>0.857851663545</v>
       </c>
       <c r="S16">
-        <v>0.004641031181644543</v>
+        <v>4.001765881116279E-06</v>
       </c>
       <c r="T16">
-        <v>0.004641031181644543</v>
+        <v>2.803433201759211E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.662053204643028</v>
+        <v>0.9124406666666668</v>
       </c>
       <c r="H17">
-        <v>0.662053204643028</v>
+        <v>2.737322</v>
       </c>
       <c r="I17">
-        <v>0.007353597422153726</v>
+        <v>0.009597496442717394</v>
       </c>
       <c r="J17">
-        <v>0.007353597422153726</v>
+        <v>0.0100839589576554</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.135881998969694</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N17">
-        <v>0.135881998969694</v>
+        <v>0.207911</v>
       </c>
       <c r="O17">
-        <v>0.0005301881992392126</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P17">
-        <v>0.0005301881992392126</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q17">
-        <v>0.08996111287118654</v>
+        <v>0.06323548381577779</v>
       </c>
       <c r="R17">
-        <v>0.08996111287118654</v>
+        <v>0.569119354342</v>
       </c>
       <c r="S17">
-        <v>3.8987905751818E-06</v>
+        <v>1.769911599150865E-06</v>
       </c>
       <c r="T17">
-        <v>3.8987905751818E-06</v>
+        <v>1.859864777941803E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.7598298677212</v>
+        <v>0.9124406666666668</v>
       </c>
       <c r="H18">
-        <v>12.7598298677212</v>
+        <v>2.737322</v>
       </c>
       <c r="I18">
-        <v>0.1417267545332512</v>
+        <v>0.009597496442717394</v>
       </c>
       <c r="J18">
-        <v>0.1417267545332512</v>
+        <v>0.0100839589576554</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.06860853772263389</v>
+        <v>0.311428</v>
       </c>
       <c r="N18">
-        <v>0.06860853772263389</v>
+        <v>0.934284</v>
       </c>
       <c r="O18">
-        <v>0.0002676987190607325</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P18">
-        <v>0.0002676987190607325</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q18">
-        <v>0.8754332688139406</v>
+        <v>0.2841595719386667</v>
       </c>
       <c r="R18">
-        <v>0.8754332688139406</v>
+        <v>2.557436147448</v>
       </c>
       <c r="S18">
-        <v>3.79400706451862E-05</v>
+        <v>7.9534035645111E-06</v>
       </c>
       <c r="T18">
-        <v>3.79400706451862E-05</v>
+        <v>8.357623714928886E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.7598298677212</v>
+        <v>0.9124406666666668</v>
       </c>
       <c r="H19">
-        <v>12.7598298677212</v>
+        <v>2.737322</v>
       </c>
       <c r="I19">
-        <v>0.1417267545332512</v>
+        <v>0.009597496442717394</v>
       </c>
       <c r="J19">
-        <v>0.1417267545332512</v>
+        <v>0.0100839589576554</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>94.3348072251292</v>
+        <v>168.931335</v>
       </c>
       <c r="N19">
-        <v>94.3348072251292</v>
+        <v>506.794005</v>
       </c>
       <c r="O19">
-        <v>0.3680781998167726</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P19">
-        <v>0.3680781998167726</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q19">
-        <v>1203.696090796925</v>
+        <v>154.13981992829</v>
       </c>
       <c r="R19">
-        <v>1203.696090796925</v>
+        <v>1387.25837935461</v>
       </c>
       <c r="S19">
-        <v>0.0521665286744727</v>
+        <v>0.004314252674604143</v>
       </c>
       <c r="T19">
-        <v>0.0521665286744727</v>
+        <v>0.004533518282205185</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.7598298677212</v>
+        <v>0.9124406666666668</v>
       </c>
       <c r="H20">
-        <v>12.7598298677212</v>
+        <v>2.737322</v>
       </c>
       <c r="I20">
-        <v>0.1417267545332512</v>
+        <v>0.009597496442717394</v>
       </c>
       <c r="J20">
-        <v>0.1417267545332512</v>
+        <v>0.0100839589576554</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>161.750825565473</v>
+        <v>206.345828</v>
       </c>
       <c r="N20">
-        <v>161.750825565473</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O20">
-        <v>0.6311239132649276</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P20">
-        <v>0.6311239132649276</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q20">
-        <v>2063.913015178885</v>
+        <v>188.2783248642053</v>
       </c>
       <c r="R20">
-        <v>2063.913015178885</v>
+        <v>1694.504923777848</v>
       </c>
       <c r="S20">
-        <v>0.08944714393536329</v>
+        <v>0.005269762654408704</v>
       </c>
       <c r="T20">
-        <v>0.08944714393536329</v>
+        <v>0.005537590664838861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.7598298677212</v>
+        <v>0.9124406666666668</v>
       </c>
       <c r="H21">
-        <v>12.7598298677212</v>
+        <v>2.737322</v>
       </c>
       <c r="I21">
-        <v>0.1417267545332512</v>
+        <v>0.009597496442717394</v>
       </c>
       <c r="J21">
-        <v>0.1417267545332512</v>
+        <v>0.0100839589576554</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.135881998969694</v>
+        <v>0.1471425</v>
       </c>
       <c r="N21">
-        <v>0.135881998969694</v>
+        <v>0.294285</v>
       </c>
       <c r="O21">
-        <v>0.0005301881992392126</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P21">
-        <v>0.0005301881992392126</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q21">
-        <v>1.733831188939163</v>
+        <v>0.134258800795</v>
       </c>
       <c r="R21">
-        <v>1.733831188939163</v>
+        <v>0.8055528047700001</v>
       </c>
       <c r="S21">
-        <v>7.514185277000235E-05</v>
+        <v>3.757798540886094E-06</v>
       </c>
       <c r="T21">
-        <v>7.514185277000235E-05</v>
+        <v>2.632522118486292E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.75898</v>
+      </c>
+      <c r="H22">
+        <v>27.51796</v>
+      </c>
+      <c r="I22">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J22">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.06930366666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.207911</v>
+      </c>
+      <c r="O22">
+        <v>0.0001844138843618826</v>
+      </c>
+      <c r="P22">
+        <v>0.0001844379559408913</v>
+      </c>
+      <c r="Q22">
+        <v>0.9535477635933334</v>
+      </c>
+      <c r="R22">
+        <v>5.72128658156</v>
+      </c>
+      <c r="S22">
+        <v>2.668905407674154E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.869699091477416E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.75898</v>
+      </c>
+      <c r="H23">
+        <v>27.51796</v>
+      </c>
+      <c r="I23">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J23">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.311428</v>
+      </c>
+      <c r="N23">
+        <v>0.934284</v>
+      </c>
+      <c r="O23">
+        <v>0.000828695651202472</v>
+      </c>
+      <c r="P23">
+        <v>0.000828803821001677</v>
+      </c>
+      <c r="Q23">
+        <v>4.28493162344</v>
+      </c>
+      <c r="R23">
+        <v>25.70958974064</v>
+      </c>
+      <c r="S23">
+        <v>0.0001199318756536903</v>
+      </c>
+      <c r="T23">
+        <v>8.401815901909403E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.75898</v>
+      </c>
+      <c r="H24">
+        <v>27.51796</v>
+      </c>
+      <c r="I24">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J24">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>168.931335</v>
+      </c>
+      <c r="N24">
+        <v>506.794005</v>
+      </c>
+      <c r="O24">
+        <v>0.4495185489626108</v>
+      </c>
+      <c r="P24">
+        <v>0.4495772247033483</v>
+      </c>
+      <c r="Q24">
+        <v>2324.322859638301</v>
+      </c>
+      <c r="R24">
+        <v>13945.9371578298</v>
+      </c>
+      <c r="S24">
+        <v>0.06505597397546752</v>
+      </c>
+      <c r="T24">
+        <v>0.04557489939034976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.75898</v>
+      </c>
+      <c r="H25">
+        <v>27.51796</v>
+      </c>
+      <c r="I25">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J25">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>206.345828</v>
+      </c>
+      <c r="N25">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O25">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P25">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q25">
+        <v>2839.10812053544</v>
+      </c>
+      <c r="R25">
+        <v>17034.64872321264</v>
+      </c>
+      <c r="S25">
+        <v>0.07946440970418124</v>
+      </c>
+      <c r="T25">
+        <v>0.05566871504755713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.75898</v>
+      </c>
+      <c r="H26">
+        <v>27.51796</v>
+      </c>
+      <c r="I26">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J26">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1471425</v>
+      </c>
+      <c r="N26">
+        <v>0.294285</v>
+      </c>
+      <c r="O26">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P26">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q26">
+        <v>2.02453071465</v>
+      </c>
+      <c r="R26">
+        <v>8.098122858600002</v>
+      </c>
+      <c r="S26">
+        <v>5.666502695124754E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.646441973418584E-05</v>
       </c>
     </row>
   </sheetData>
